--- a/integrador/api_smart/excel/luminosidade.xlsx
+++ b/integrador/api_smart/excel/luminosidade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1090723\Desktop\Dados Integrador\Dados Integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43705577808\Desktop\PWBE\integrador\api_smart\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF865FB-1EE9-4002-973C-E1ECB9E6EE2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E67103-2603-4A47-A8F6-A1F74128AA24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="15">
   <si>
     <t>sensor</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>inativo</t>
+  </si>
+  <si>
+    <t>00:1B:44:11:3A:BR</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F203" sqref="F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4498,6 +4501,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202">
+        <v>-98.76473</v>
+      </c>
+      <c r="E202">
+        <v>-56.938749999999999</v>
+      </c>
+      <c r="F202" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
